--- a/DATA_goal/Junction_Flooding_86.xlsx
+++ b/DATA_goal/Junction_Flooding_86.xlsx
@@ -444,33 +444,33 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
@@ -655,103 +655,103 @@
         <v>41518.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.97</v>
+        <v>0.6</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>2.73</v>
+        <v>0.27</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>18.5</v>
+        <v>1.85</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>13.34</v>
+        <v>1.33</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5.28</v>
+        <v>0.53</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>18.25</v>
+        <v>1.83</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>10.34</v>
+        <v>1.03</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.38</v>
+        <v>0.44</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.24</v>
+        <v>0.52</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7.41</v>
+        <v>0.74</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>8.210000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.47</v>
+        <v>0.25</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>6.77</v>
+        <v>0.68</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>8.83</v>
+        <v>0.88</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>6.48</v>
+        <v>0.65</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.12</v>
+        <v>0.11</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.87</v>
+        <v>0.09</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>95.59</v>
+        <v>9.56</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>18.54</v>
+        <v>1.85</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>6.25</v>
+        <v>0.62</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>11.31</v>
+        <v>1.13</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.84</v>
+        <v>0.68</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>1.07</v>
+        <v>0.11</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>10.92</v>
+        <v>1.09</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>5.52</v>
+        <v>0.55</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.3</v>
+        <v>0.53</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>5.77</v>
+        <v>0.58</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.03</v>
+        <v>0.2</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>15.72</v>
+        <v>1.57</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.1</v>
+        <v>0.31</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>7.81</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41518.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>16.77</v>
+        <v>1.68</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>12.49</v>
+        <v>1.25</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.63</v>
+        <v>0.16</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>36.96</v>
+        <v>3.7</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>29.54</v>
+        <v>2.95</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>12.55</v>
+        <v>1.25</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>48.09</v>
+        <v>4.81</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>20.48</v>
+        <v>2.05</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>9.24</v>
+        <v>0.92</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>12.82</v>
+        <v>1.28</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>14.81</v>
+        <v>1.48</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>15.88</v>
+        <v>1.59</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.36</v>
+        <v>0.44</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>13.31</v>
+        <v>1.33</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>18.61</v>
+        <v>1.86</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>11.58</v>
+        <v>1.16</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>195.25</v>
+        <v>19.52</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>37.15</v>
+        <v>3.72</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>12.28</v>
+        <v>1.23</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>24.55</v>
+        <v>2.45</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>13.27</v>
+        <v>1.33</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.81</v>
+        <v>0.18</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>25.03</v>
+        <v>2.5</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>10.85</v>
+        <v>1.09</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>9.779999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>11.36</v>
+        <v>1.14</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>15.75</v>
+        <v>1.58</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.95</v>
+        <v>0.09</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>43.75</v>
+        <v>4.37</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>6.74</v>
+        <v>0.67</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>15.36</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41518.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.84</v>
+        <v>0.18</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.87</v>
+        <v>0.09</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>10.22</v>
+        <v>1.02</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.95</v>
+        <v>0.1</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.68</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K4" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="W4" s="4" t="n">
         <v>0.16</v>
       </c>
-      <c r="L4" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>1.55</v>
-      </c>
       <c r="X4" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>5.16</v>
+        <v>0.52</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.55</v>
+        <v>0.06</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.87</v>
+        <v>0.09</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>10.01</v>
+        <v>1</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41518.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>8.32</v>
+        <v>0.83</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>6.2</v>
+        <v>0.62</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="M5" s="4" t="n">
         <v>0.79</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>18.37</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>23.38</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>10.16</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>6.43</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>7.93</v>
-      </c>
       <c r="N5" s="4" t="n">
-        <v>2.14</v>
+        <v>0.21</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>6.62</v>
+        <v>0.66</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>9.17</v>
+        <v>0.92</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>5.77</v>
+        <v>0.58</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>93.33</v>
+        <v>9.33</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>18.31</v>
+        <v>1.83</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>6.11</v>
+        <v>0.61</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>12.04</v>
+        <v>1.2</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>6.56</v>
+        <v>0.66</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.89</v>
+        <v>0.09</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>11.82</v>
+        <v>1.18</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>5.39</v>
+        <v>0.54</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.87</v>
+        <v>0.49</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>5.68</v>
+        <v>0.57</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>7.81</v>
+        <v>0.78</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>20.82</v>
+        <v>2.08</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.33</v>
+        <v>0.33</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>7.63</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41518.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>23.81</v>
+        <v>2.38</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>17.85</v>
+        <v>1.79</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>1.21</v>
+        <v>0.12</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>52.03</v>
+        <v>5.2</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>42.63</v>
+        <v>4.26</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>18.46</v>
+        <v>1.85</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>69.29000000000001</v>
+        <v>6.93</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>28.9</v>
+        <v>2.89</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>13.06</v>
+        <v>1.31</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>19.07</v>
+        <v>1.91</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>20.86</v>
+        <v>2.09</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>22.2</v>
+        <v>2.22</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>6.03</v>
+        <v>0.6</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>18.72</v>
+        <v>1.87</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>26.58</v>
+        <v>2.66</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>15.74</v>
+        <v>1.57</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.35</v>
+        <v>0.03</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.84</v>
+        <v>0.08</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>277.66</v>
+        <v>27.77</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>52.29</v>
+        <v>5.23</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>17.28</v>
+        <v>1.73</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>35.18</v>
+        <v>3.52</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>18.62</v>
+        <v>1.86</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>2.47</v>
+        <v>0.25</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>34.85</v>
+        <v>3.49</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>15.27</v>
+        <v>1.53</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>13.51</v>
+        <v>1.35</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>15.86</v>
+        <v>1.59</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>21.99</v>
+        <v>2.2</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>62.9</v>
+        <v>6.29</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>9.74</v>
+        <v>0.97</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>21.61</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41518.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>13.83</v>
+        <v>1.38</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>10.36</v>
+        <v>1.04</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>30.3</v>
+        <v>3.03</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>24.72</v>
+        <v>2.47</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>10.66</v>
+        <v>1.07</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>45.3</v>
+        <v>4.53</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>16.8</v>
+        <v>1.68</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>7.65</v>
+        <v>0.76</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>11</v>
+        <v>1.1</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>12.14</v>
+        <v>1.21</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>12.95</v>
+        <v>1.3</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>3.51</v>
+        <v>0.35</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>10.9</v>
+        <v>1.09</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>15.45</v>
+        <v>1.54</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>9.23</v>
+        <v>0.92</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>158.64</v>
+        <v>15.86</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>30.58</v>
+        <v>3.06</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>10.06</v>
+        <v>1.01</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>20.51</v>
+        <v>2.05</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>10.85</v>
+        <v>1.09</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>1.44</v>
+        <v>0.14</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>22.04</v>
+        <v>2.2</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>8.890000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>7.9</v>
+        <v>0.79</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>9.26</v>
+        <v>0.93</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>12.81</v>
+        <v>1.28</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.32</v>
+        <v>0.03</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>41.3</v>
+        <v>4.13</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>5.64</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>12.58</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41518.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>21.73</v>
+        <v>2.17</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>16.3</v>
+        <v>1.63</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>1.02</v>
+        <v>0.1</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>47.44</v>
+        <v>4.74</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>38.94</v>
+        <v>3.89</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>16.9</v>
+        <v>1.69</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>65.69</v>
+        <v>6.57</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>26.35</v>
+        <v>2.64</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>11.93</v>
+        <v>1.19</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>17.44</v>
+        <v>1.74</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>19.03</v>
+        <v>1.9</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>20.22</v>
+        <v>2.02</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>5.49</v>
+        <v>0.55</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>17.07</v>
+        <v>1.71</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>24.27</v>
+        <v>2.43</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>14.31</v>
+        <v>1.43</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>252.49</v>
+        <v>25.25</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>47.71</v>
+        <v>4.77</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>15.76</v>
+        <v>1.58</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>32.15</v>
+        <v>3.21</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>16.97</v>
+        <v>1.7</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>2.24</v>
+        <v>0.22</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>32.41</v>
+        <v>3.24</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>13.92</v>
+        <v>1.39</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>12.29</v>
+        <v>1.23</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>14.44</v>
+        <v>1.44</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>20.04</v>
+        <v>2</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>59.58</v>
+        <v>5.96</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>8.9</v>
+        <v>0.89</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>19.7</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41518.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>14.24</v>
+        <v>1.42</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>10.68</v>
+        <v>1.07</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>31.14</v>
+        <v>3.11</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>25.5</v>
+        <v>2.55</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>11.03</v>
+        <v>1.1</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>46.13</v>
+        <v>4.61</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>17.28</v>
+        <v>1.73</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>7.86</v>
+        <v>0.79</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>11.38</v>
+        <v>1.14</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>12.49</v>
+        <v>1.25</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>13.29</v>
+        <v>1.33</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>3.61</v>
+        <v>0.36</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>11.2</v>
+        <v>1.12</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>15.91</v>
+        <v>1.59</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>9.43</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>163.22</v>
+        <v>16.32</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>31.4</v>
+        <v>3.14</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>10.34</v>
+        <v>1.03</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>21.12</v>
+        <v>2.11</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>11.15</v>
+        <v>1.11</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.47</v>
+        <v>0.15</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>22.37</v>
+        <v>2.24</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>9.130000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>8.09</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>9.5</v>
+        <v>0.95</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>13.16</v>
+        <v>1.32</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>41.97</v>
+        <v>4.2</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>5.82</v>
+        <v>0.58</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>12.93</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41518.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>19.05</v>
+        <v>1.91</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>14.3</v>
+        <v>1.43</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.86</v>
+        <v>0.09</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>41.59</v>
+        <v>4.16</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>34.17</v>
+        <v>3.42</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>14.84</v>
+        <v>1.48</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>58.02</v>
+        <v>5.8</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>23.1</v>
+        <v>2.31</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>10.46</v>
+        <v>1.05</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>15.31</v>
+        <v>1.53</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>16.68</v>
+        <v>1.67</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>17.72</v>
+        <v>1.77</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>4.81</v>
+        <v>0.48</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>14.96</v>
+        <v>1.5</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>21.29</v>
+        <v>2.13</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>12.53</v>
+        <v>1.25</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>220.44</v>
+        <v>22.04</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>41.83</v>
+        <v>4.18</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>13.81</v>
+        <v>1.38</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>28.2</v>
+        <v>2.82</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>14.88</v>
+        <v>1.49</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.97</v>
+        <v>0.2</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>28.51</v>
+        <v>2.85</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>12.2</v>
+        <v>1.22</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>10.77</v>
+        <v>1.08</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>12.66</v>
+        <v>1.27</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>17.56</v>
+        <v>1.76</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>52.62</v>
+        <v>5.26</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>7.81</v>
+        <v>0.78</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>17.27</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_86.xlsx
+++ b/DATA_goal/Junction_Flooding_86.xlsx
@@ -447,12 +447,12 @@
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
@@ -473,7 +473,7 @@
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
@@ -655,103 +655,103 @@
         <v>44781.84027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.92</v>
+        <v>9.17</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.65</v>
+        <v>6.53</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.85</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.06</v>
+        <v>20.58</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.49</v>
+        <v>14.86</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.66</v>
+        <v>6.62</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2</v>
+        <v>20.04</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.16</v>
+        <v>11.57</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.47</v>
+        <v>4.74</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.6</v>
+        <v>6</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.85</v>
+        <v>8.5</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.82</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.75</v>
+        <v>7.52</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1</v>
+        <v>9.99</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.71</v>
+        <v>7.07</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.2</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>10.7</v>
+        <v>107.05</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>2.07</v>
+        <v>20.66</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.94</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.29</v>
+        <v>12.86</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.74</v>
+        <v>7.39</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.4</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.19</v>
+        <v>11.91</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.61</v>
+        <v>6.13</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.58</v>
+        <v>5.79</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.66</v>
+        <v>6.63</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.88</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.22</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.81</v>
+        <v>18.05</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.62</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.87</v>
+        <v>8.68</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44781.84722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.17</v>
+        <v>11.75</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.87</v>
+        <v>8.68</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.5</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.61</v>
+        <v>26.09</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.05</v>
+        <v>20.45</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.88</v>
+        <v>8.82</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.41</v>
+        <v>34.1</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.45</v>
+        <v>14.49</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.64</v>
+        <v>6.38</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.88</v>
+        <v>8.77</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.07</v>
+        <v>10.67</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.1</v>
+        <v>11.02</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.33</v>
+        <v>3.31</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.31</v>
+        <v>13.07</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.83</v>
+        <v>8.34</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.11</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>13.57</v>
+        <v>135.73</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.63</v>
+        <v>26.26</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.87</v>
+        <v>8.68</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.72</v>
+        <v>17.19</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.92</v>
+        <v>9.25</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.34</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.79</v>
+        <v>17.91</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.77</v>
+        <v>7.66</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.7</v>
+        <v>6.97</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.82</v>
+        <v>8.16</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.1</v>
+        <v>11.01</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.1</v>
+        <v>1.02</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.14</v>
+        <v>31.43</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.47</v>
+        <v>4.72</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.08</v>
+        <v>10.85</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44781.85416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.13</v>
+        <v>11.34</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.84</v>
+        <v>8.43</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.09</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.51</v>
+        <v>25.07</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2</v>
+        <v>19.99</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.86</v>
+        <v>8.6</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.51</v>
+        <v>35.15</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.39</v>
+        <v>13.91</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.62</v>
+        <v>6.21</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.87</v>
+        <v>8.68</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.02</v>
+        <v>10.22</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.06</v>
+        <v>10.61</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.31</v>
+        <v>3.13</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.9</v>
+        <v>9.02</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.27</v>
+        <v>12.65</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.79</v>
+        <v>7.87</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>13</v>
+        <v>130.01</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.52</v>
+        <v>25.25</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.83</v>
+        <v>8.33</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.67</v>
+        <v>16.69</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.89</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.23</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.77</v>
+        <v>17.73</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.74</v>
+        <v>7.36</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.66</v>
+        <v>6.63</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.78</v>
+        <v>7.78</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.06</v>
+        <v>10.57</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.22</v>
+        <v>32.25</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.46</v>
+        <v>4.58</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44781.86111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.86</v>
+        <v>18.59</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.39</v>
+        <v>13.91</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.15</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.08</v>
+        <v>40.75</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.32</v>
+        <v>33.15</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.44</v>
+        <v>14.36</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>5.56</v>
+        <v>55.56</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.26</v>
+        <v>22.64</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.02</v>
+        <v>10.17</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.47</v>
+        <v>14.69</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.65</v>
+        <v>16.48</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.73</v>
+        <v>17.28</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.49</v>
+        <v>4.9</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.47</v>
+        <v>14.66</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.08</v>
+        <v>20.77</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.24</v>
+        <v>12.45</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.6</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>21.59</v>
+        <v>215.86</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.1</v>
+        <v>40.97</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.35</v>
+        <v>13.53</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.74</v>
+        <v>27.45</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.45</v>
+        <v>14.49</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.19</v>
+        <v>1.95</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.78</v>
+        <v>27.76</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.2</v>
+        <v>11.95</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.06</v>
+        <v>10.63</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.25</v>
+        <v>12.49</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.72</v>
+        <v>17.19</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>5.06</v>
+        <v>50.6</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.76</v>
+        <v>7.59</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.69</v>
+        <v>16.92</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_86.xlsx
+++ b/DATA_goal/Junction_Flooding_86.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44781.84027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>9.17</v>
+        <v>9.173</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>6.53</v>
+        <v>6.534</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>2.85</v>
+        <v>2.853</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>20.58</v>
+        <v>20.581</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>14.86</v>
+        <v>14.857</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>6.62</v>
+        <v>6.617</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>20.04</v>
+        <v>20.037</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>11.57</v>
+        <v>11.575</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.74</v>
+        <v>4.738</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6</v>
+        <v>6.004</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>8.5</v>
+        <v>8.497</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>8.640000000000001</v>
+        <v>8.644</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.82</v>
+        <v>2.821</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>7.52</v>
+        <v>7.519</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>9.99</v>
+        <v>9.989000000000001</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>7.07</v>
+        <v>7.075</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.2</v>
+        <v>2.196</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.76</v>
+        <v>0.759</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>107.05</v>
+        <v>107.045</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>20.66</v>
+        <v>20.658</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>6.94</v>
+        <v>6.941</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>12.86</v>
+        <v>12.856</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>7.39</v>
+        <v>7.392</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>1.4</v>
+        <v>1.396</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>11.91</v>
+        <v>11.913</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>6.13</v>
+        <v>6.131</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.79</v>
+        <v>5.786</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.63</v>
+        <v>6.628</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.789999999999999</v>
+        <v>8.785</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.22</v>
+        <v>2.215</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>18.05</v>
+        <v>18.053</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.62</v>
+        <v>3.621</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>8.68</v>
+        <v>8.676</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44781.84722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>11.75</v>
+        <v>11.748</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>8.68</v>
+        <v>8.678000000000001</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.5</v>
+        <v>1.496</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>26.09</v>
+        <v>26.089</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>20.45</v>
+        <v>20.453</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>8.82</v>
+        <v>8.821999999999999</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>34.1</v>
+        <v>34.101</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>14.49</v>
+        <v>14.488</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>6.38</v>
+        <v>6.379</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>8.77</v>
+        <v>8.772</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>10.67</v>
+        <v>10.672</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>11.02</v>
+        <v>11.019</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.31</v>
+        <v>3.311</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>9.4</v>
+        <v>9.398999999999999</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>13.07</v>
+        <v>13.072</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>8.34</v>
+        <v>8.337999999999999</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.11</v>
+        <v>1.106</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.54</v>
+        <v>0.538</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>135.73</v>
+        <v>135.729</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>26.26</v>
+        <v>26.257</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>8.68</v>
+        <v>8.676</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>17.19</v>
+        <v>17.188</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>9.25</v>
+        <v>9.249000000000001</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.34</v>
+        <v>1.338</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>17.91</v>
+        <v>17.914</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>7.66</v>
+        <v>7.663</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>6.97</v>
+        <v>6.972</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>8.16</v>
+        <v>8.156000000000001</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>11.01</v>
+        <v>11.009</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.02</v>
+        <v>1.023</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>31.43</v>
+        <v>31.429</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.72</v>
+        <v>4.724</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>10.85</v>
+        <v>10.846</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44781.85416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>11.34</v>
+        <v>11.342</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>8.43</v>
+        <v>8.433999999999999</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.09</v>
+        <v>1.089</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>25.07</v>
+        <v>25.071</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>19.99</v>
+        <v>19.993</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>8.6</v>
+        <v>8.599</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>35.15</v>
+        <v>35.148</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>13.91</v>
+        <v>13.911</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>6.21</v>
+        <v>6.214</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>8.68</v>
+        <v>8.683</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>10.22</v>
+        <v>10.221</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>10.61</v>
+        <v>10.613</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.13</v>
+        <v>3.129</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>9.02</v>
+        <v>9.023</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>12.65</v>
+        <v>12.653</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>7.87</v>
+        <v>7.868</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.782</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.43</v>
+        <v>0.431</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>130.01</v>
+        <v>130.014</v>
       </c>
       <c r="U4" s="4" t="n">
         <v>25.25</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>8.33</v>
+        <v>8.329000000000001</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>16.69</v>
+        <v>16.694</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>8.880000000000001</v>
+        <v>8.881</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.23</v>
+        <v>1.231</v>
       </c>
       <c r="Z4" s="4" t="n">
         <v>17.73</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>7.36</v>
+        <v>7.357</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.63</v>
+        <v>6.634</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>7.78</v>
+        <v>7.778</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>10.57</v>
+        <v>10.575</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.67</v>
+        <v>0.671</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>32.25</v>
+        <v>32.249</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.58</v>
+        <v>4.583</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>10.41</v>
+        <v>10.413</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>16.92</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.86804398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>18.14</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>13.58</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>39.71</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>14.05</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>56.17</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>22.06</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>9.94</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>16.04</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>16.85</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>14.29</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>20.28</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>12.08</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>210.14</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>39.97</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>13.19</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>26.83</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>14.13</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>27.68</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>10.33</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>16.75</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>51.2</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>16.49</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_86.xlsx
+++ b/DATA_goal/Junction_Flooding_86.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,33 +444,33 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
@@ -970,100 +970,204 @@
         <v>18.59</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>13.91</v>
+        <v>13.906</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.15</v>
+        <v>1.146</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>40.75</v>
+        <v>40.755</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>33.15</v>
+        <v>33.151</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>14.36</v>
+        <v>14.363</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>55.56</v>
+        <v>55.558</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>22.64</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>10.17</v>
+        <v>10.174</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>14.69</v>
+        <v>14.695</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>16.48</v>
+        <v>16.484</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>17.28</v>
+        <v>17.283</v>
       </c>
       <c r="N5" s="4" t="n">
         <v>4.9</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>14.66</v>
+        <v>14.663</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>20.77</v>
+        <v>20.769</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>12.45</v>
+        <v>12.449</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.6</v>
+        <v>0.602</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>215.86</v>
+        <v>215.856</v>
       </c>
       <c r="U5" s="4" t="n">
         <v>40.97</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>13.53</v>
+        <v>13.534</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>27.45</v>
+        <v>27.448</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>14.49</v>
+        <v>14.492</v>
       </c>
       <c r="Y5" s="4" t="n">
         <v>1.95</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>27.76</v>
+        <v>27.764</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>11.95</v>
+        <v>11.955</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>10.63</v>
+        <v>10.627</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>12.49</v>
+        <v>12.487</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>17.19</v>
+        <v>17.192</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.5</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>50.6</v>
+        <v>50.602</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.59</v>
+        <v>7.586</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>16.92</v>
+        <v>16.921</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44781.86804398148</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>18.14</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>56.17</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>22.06</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>9.94</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>16.04</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>16.85</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>20.28</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>12.08</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>210.14</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>39.97</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>13.19</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>26.83</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>14.13</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>27.68</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>10.33</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>16.49</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_86.xlsx
+++ b/DATA_goal/Junction_Flooding_86.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,33 +444,33 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
@@ -970,204 +970,100 @@
         <v>18.59</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>13.906</v>
+        <v>13.91</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.146</v>
+        <v>1.15</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>40.755</v>
+        <v>40.75</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>33.151</v>
+        <v>33.15</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>14.363</v>
+        <v>14.36</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>55.558</v>
+        <v>55.56</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>22.64</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>10.174</v>
+        <v>10.17</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>14.695</v>
+        <v>14.69</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>16.484</v>
+        <v>16.48</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>17.283</v>
+        <v>17.28</v>
       </c>
       <c r="N5" s="4" t="n">
         <v>4.9</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>14.663</v>
+        <v>14.66</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>20.769</v>
+        <v>20.77</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>12.449</v>
+        <v>12.45</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.602</v>
+        <v>0.6</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>215.856</v>
+        <v>215.86</v>
       </c>
       <c r="U5" s="4" t="n">
         <v>40.97</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>13.534</v>
+        <v>13.53</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>27.448</v>
+        <v>27.45</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>14.492</v>
+        <v>14.49</v>
       </c>
       <c r="Y5" s="4" t="n">
         <v>1.95</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>27.764</v>
+        <v>27.76</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>11.955</v>
+        <v>11.95</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>10.627</v>
+        <v>10.63</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>12.487</v>
+        <v>12.49</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>17.192</v>
+        <v>17.19</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.5</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>50.602</v>
+        <v>50.6</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.586</v>
+        <v>7.59</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>16.921</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.86804398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>18.14</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>13.58</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>39.71</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>14.05</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>56.17</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>22.06</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>9.94</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>16.04</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>16.85</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>14.29</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>20.28</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>12.08</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>210.14</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>39.97</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>13.19</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>26.83</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>14.13</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>27.68</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>10.33</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>16.75</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>51.2</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>16.49</v>
+        <v>16.92</v>
       </c>
     </row>
   </sheetData>
